--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3998.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3998.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jason Omar Holder</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>16/07/2013</t>
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>21/07/2013</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>24/07/2013</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1062,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>27/11/2013</t>
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1161,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1208,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/01/2014</t>
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>07/01/2014</t>
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1302,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/02/2014</t>
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3728</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3732</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1860,7 +1916,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>21/02/2015</t>
@@ -1868,7 +1923,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1908,7 +1963,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>24/02/2015</t>
@@ -1916,7 +1970,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3762</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,7 +2022,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2020,7 +2074,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2060,7 +2114,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -2068,7 +2121,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3788</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2120,7 +2173,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2172,7 +2225,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2224,7 +2277,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2276,7 +2329,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3892</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2328,7 +2381,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2380,7 +2433,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2432,7 +2485,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2484,7 +2537,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2536,7 +2589,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2588,7 +2641,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2640,7 +2693,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2692,7 +2745,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2744,7 +2797,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2796,7 +2849,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2848,7 +2901,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3961</t>
+          <t>3961</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2900,7 +2953,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2952,7 +3005,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3964</t>
+          <t>3964</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3004,7 +3057,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3056,7 +3109,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3108,7 +3161,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3160,7 +3213,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3212,7 +3265,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3264,7 +3317,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3316,7 +3369,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3368,7 +3421,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3408,7 +3461,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -3416,7 +3468,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3456,7 +3508,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -3464,7 +3515,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3516,7 +3567,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3568,7 +3619,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3620,7 +3671,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3672,7 +3723,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3724,7 +3775,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3764,7 +3815,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3772,7 +3822,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3824,7 +3874,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3876,7 +3926,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3928,7 +3978,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3980,7 +4030,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4032,7 +4082,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4084,7 +4134,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4136,7 +4186,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4148</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4188,7 +4238,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4240,7 +4290,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4292,7 +4342,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4344,7 +4394,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4396,7 +4446,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4448,7 +4498,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4500,7 +4550,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4552,7 +4602,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4604,7 +4654,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4656,7 +4706,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4708,7 +4758,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4760,7 +4810,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4812,7 +4862,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4864,7 +4914,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4916,7 +4966,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4956,7 +5006,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4964,7 +5013,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5016,7 +5065,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5056,7 +5105,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>01/03/2019</t>
@@ -5064,7 +5112,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5116,7 +5164,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5168,7 +5216,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5220,7 +5268,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5272,7 +5320,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5312,7 +5360,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -5320,7 +5367,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5360,7 +5407,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -5368,7 +5414,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5420,7 +5466,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5460,7 +5506,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -5468,7 +5513,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5520,7 +5565,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5572,7 +5617,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5624,7 +5669,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5676,7 +5721,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5728,7 +5773,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5780,7 +5825,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5820,7 +5865,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -5828,7 +5872,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5880,7 +5924,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5932,7 +5976,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5972,7 +6016,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -5980,7 +6023,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6032,7 +6075,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6072,7 +6115,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -6080,7 +6122,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6132,7 +6174,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6184,7 +6226,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6236,7 +6278,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6288,7 +6330,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6340,7 +6382,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6380,7 +6422,6 @@
           <t>116</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -6388,7 +6429,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6440,7 +6481,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6492,7 +6533,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6544,7 +6585,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6596,7 +6637,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6648,7 +6689,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6700,7 +6741,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6752,7 +6793,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6804,7 +6845,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6856,7 +6897,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6908,7 +6949,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6960,7 +7001,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7012,7 +7053,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7064,7 +7105,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7116,7 +7157,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7168,7 +7209,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7220,7 +7261,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7272,7 +7313,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7311,7 +7352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7333,7 +7374,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -7370,7 +7411,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7407,7 +7448,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7444,7 +7485,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7481,7 +7522,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7518,7 +7559,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7555,7 +7596,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7592,7 +7633,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7629,7 +7670,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7666,7 +7707,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7703,7 +7744,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7740,7 +7781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7777,7 +7818,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7814,7 +7855,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7851,7 +7892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7888,7 +7929,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7925,7 +7966,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7962,7 +8003,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7999,7 +8040,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8036,7 +8077,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8073,7 +8114,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8110,7 +8151,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8147,7 +8188,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3728</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8184,7 +8225,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3732</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8221,7 +8262,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -8258,7 +8299,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8295,7 +8336,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8332,7 +8373,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8369,7 +8410,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8406,7 +8447,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3762</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8443,7 +8484,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8480,7 +8521,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8517,7 +8558,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3788</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8554,7 +8595,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8591,7 +8632,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8628,7 +8669,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8665,7 +8706,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3892</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8702,7 +8743,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8739,7 +8780,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8776,7 +8817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8813,7 +8854,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8850,7 +8891,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8887,7 +8928,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8924,7 +8965,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8961,7 +9002,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8998,7 +9039,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9035,7 +9076,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9072,7 +9113,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3961</t>
+          <t>3961</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9109,7 +9150,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9146,7 +9187,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3964</t>
+          <t>3964</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9183,7 +9224,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9220,7 +9261,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9257,7 +9298,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9294,7 +9335,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9331,7 +9372,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9368,7 +9409,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -9405,7 +9446,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -9442,7 +9483,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9479,7 +9520,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -9516,7 +9557,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -9553,7 +9594,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9590,7 +9631,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9627,7 +9668,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9664,7 +9705,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9701,7 +9742,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9738,7 +9779,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9775,7 +9816,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9812,7 +9853,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9849,7 +9890,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9886,7 +9927,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9923,7 +9964,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9960,7 +10001,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4148</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9997,7 +10038,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -10034,7 +10075,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -10071,7 +10112,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -10108,7 +10149,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -10145,7 +10186,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -10182,7 +10223,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -10219,7 +10260,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -10256,7 +10297,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -10293,7 +10334,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -10330,7 +10371,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10367,7 +10408,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -10404,7 +10445,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10441,7 +10482,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10478,7 +10519,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10515,7 +10556,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10552,7 +10593,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10589,7 +10630,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10626,7 +10667,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10663,7 +10704,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10700,7 +10741,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10737,7 +10778,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10774,7 +10815,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10811,7 +10852,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10848,7 +10889,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10885,7 +10926,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10922,7 +10963,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10959,7 +11000,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10996,7 +11037,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11033,7 +11074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11070,7 +11111,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -11107,7 +11148,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -11144,7 +11185,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -11181,7 +11222,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11218,7 +11259,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11255,7 +11296,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11292,7 +11333,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11329,7 +11370,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -11366,7 +11407,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -11403,7 +11444,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11440,7 +11481,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -11477,7 +11518,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -11514,7 +11555,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -11551,7 +11592,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -11588,7 +11629,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -11625,7 +11666,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -11662,7 +11703,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -11699,7 +11740,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -11736,7 +11777,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -11773,7 +11814,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -11810,7 +11851,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -11847,7 +11888,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -11884,7 +11925,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -11921,7 +11962,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -11958,7 +11999,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -11995,7 +12036,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -12032,7 +12073,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -12069,7 +12110,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -12106,7 +12147,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -12132,6 +12173,525 @@
       <c r="G130" t="inlineStr">
         <is>
           <t>0/66</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.07%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.23%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.74%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13.85%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3998.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3998.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12233,15 +12234,475 @@
           <t>4414</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.07%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.23%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.74%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13.85%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12249,27 +12710,14 @@
           <t>4417</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -12279,15 +12727,14 @@
           <t>4449</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -12299,13 +12746,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12313,29 +12753,12 @@
           <t>4451</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.07%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12343,25 +12766,12 @@
           <t>4483</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12369,27 +12779,14 @@
           <t>4484</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.23%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -12401,13 +12798,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12417,13 +12807,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12431,29 +12814,12 @@
           <t>4520</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.31%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12463,13 +12829,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12479,13 +12838,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12493,27 +12845,14 @@
           <t>4535</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>6</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.04%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -12523,27 +12862,14 @@
           <t>4536</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>6</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -12553,29 +12879,12 @@
           <t>4624</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.57%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12583,27 +12892,14 @@
           <t>4636</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.74%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -12613,23 +12909,14 @@
           <t>4639</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -12641,13 +12928,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12657,13 +12937,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12671,29 +12944,12 @@
           <t>4731</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>13.85%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3998.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3998.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -766,6 +764,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>16/07/2013</t>
@@ -865,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>21/07/2013</t>
@@ -912,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>24/07/2013</t>
@@ -1063,6 +1064,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>27/11/2013</t>
@@ -1162,6 +1164,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -1209,6 +1212,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/01/2014</t>
@@ -1256,6 +1260,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>07/01/2014</t>
@@ -1303,6 +1308,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/02/2014</t>
@@ -1350,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -1917,6 +1924,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>21/02/2015</t>
@@ -1964,6 +1972,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>24/02/2015</t>
@@ -2115,6 +2124,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -3462,6 +3472,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -3474,7 +3485,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3509,6 +3520,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -3521,7 +3533,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3816,6 +3828,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3828,7 +3841,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5007,6 +5020,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -5106,6 +5120,7 @@
           <t>90</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>01/03/2019</t>
@@ -5361,6 +5376,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -5408,6 +5424,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -5507,6 +5524,7 @@
           <t>98</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -5519,7 +5537,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5866,6 +5884,7 @@
           <t>105</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -6017,6 +6036,7 @@
           <t>108</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -6116,6 +6136,7 @@
           <t>110</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -6423,6 +6444,7 @@
           <t>116</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -12180,778 +12202,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.07%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.23%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.31%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.04%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.57%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.74%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>13.85%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>